--- a/data/trans_dic/P20_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,7 +602,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +612,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -644,27 +645,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>0,0; 11,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 77,04</t>
+          <t>0,0; 13,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>0,0; 7,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 67,96</t>
+          <t>0,0; 8,36</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 61,78</t>
+          <t>5,28; 26,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,81; 79,16</t>
+          <t>13,83; 68,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,47; 72,77</t>
+          <t>21,49; 46,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,47; 65,67</t>
+          <t>17,52; 42,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,27; 63,86</t>
+          <t>15,07; 33,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,01; 69,31</t>
+          <t>21,37; 53,31</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>63,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>47,73%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,13; 72,53</t>
+          <t>20,53; 44,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,97; 72,8</t>
+          <t>24,92; 49,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,77; 73,84</t>
+          <t>53,36; 73,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,29; 65,81</t>
+          <t>44,11; 63,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,51; 70,59</t>
+          <t>43,67; 58,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,42; 65,75</t>
+          <t>40,21; 55,41</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>55,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,67%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>50,03%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,38; 71,45</t>
+          <t>39,13; 61,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,36; 65,69</t>
+          <t>33,88; 54,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,84; 75,01</t>
+          <t>43,16; 63,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,66; 67,71</t>
+          <t>45,31; 64,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,46; 71,11</t>
+          <t>45,6; 60,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,68; 63,65</t>
+          <t>43,25; 57,62</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>64,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>62,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,67; 66,84</t>
+          <t>35,59; 59,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,26; 63,13</t>
+          <t>36,1; 61,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,94; 78,33</t>
+          <t>49,17; 77,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,7; 74,93</t>
+          <t>48,14; 75,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,53; 70,54</t>
+          <t>44,05; 63,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,14; 67,21</t>
+          <t>45,43; 64,3</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,04%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,92%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>47,3%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,41; 74,93</t>
+          <t>56,86; 84,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,99; 60,55</t>
+          <t>29,73; 60,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,6; 76,84</t>
+          <t>42,81; 72,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,75; 61,29</t>
+          <t>33,53; 63,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,05; 73,64</t>
+          <t>52,67; 72,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,61; 58,09</t>
+          <t>36,43; 58,09</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>41,12%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,27; 64,59</t>
+          <t>30,83; 42,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,15; 61,1</t>
+          <t>31,43; 46,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,21; 71,02</t>
+          <t>43,01; 52,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,55; 61,59</t>
+          <t>39,53; 49,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,0; 66,86</t>
+          <t>38,82; 46,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,53; 59,77</t>
+          <t>37,15; 45,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13553</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17728</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16042</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20156</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18087</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66305</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43878</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47206</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61965</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>113510</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7222; 36204</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23340; 115247</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28651; 62121</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28919; 70296</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40698; 90177</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71337; 177985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44369</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59376</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>137281</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>144025</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>181650</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>203401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28687; 62767</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40389; 79967</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>114930; 157540</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>116475; 167837</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>155076; 206991</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>171356; 236099</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82793</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>82181</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>105383</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>120483</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>188176</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>202664</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>63968; 99810</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>63248; 102647</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>82552; 121614</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>98937; 141052</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>161770; 216129</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>175200; 233410</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66009</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>77119</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66269</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>71347</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132278</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>148467</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49426; 82489</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>56026; 96213</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50884; 80207</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>54804; 85587</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>106760; 153565</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>122241; 173002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>64911</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>49337</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>60791</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65825</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>125702</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>115161</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51306; 76417</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>32500; 66293</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45812; 77079</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>44973; 84834</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>103888; 143876</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>88696; 141430</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>276169</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>334317</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>416272</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>454634</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>692441</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>788952</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>232885; 319899</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>279442; 413479</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>373338; 458572</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>406967; 504823</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>630247; 756750</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>712721; 870334</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>